--- a/VT_REG1_ELC_V12.xlsx
+++ b/VT_REG1_ELC_V12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Training material\DemoS_012\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GAMS AND GIT\GitHub\Demo_S012_Vonline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F285464-C26D-4EE5-8AAA-6C1B248B09E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0140D298-BD15-4BFE-98B8-22A43592DD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" tabRatio="901" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EB1" sheetId="133" r:id="rId1"/>
@@ -26,12 +26,17 @@
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,14 +44,14 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="J3" authorId="0" shapeId="0">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -160,7 +165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="1" shapeId="0">
+    <comment ref="O3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -186,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="2" shapeId="0">
+    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -259,7 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="2" shapeId="0">
+    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -312,7 +317,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="2" shapeId="0">
+    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -345,7 +350,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P15" authorId="2" shapeId="0">
+    <comment ref="P15" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -438,7 +443,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q15" authorId="1" shapeId="0">
+    <comment ref="Q15" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -463,7 +468,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R15" authorId="2" shapeId="0">
+    <comment ref="R15" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -526,7 +531,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J16" authorId="2" shapeId="0">
+    <comment ref="J16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -774,14 +779,14 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="T3" authorId="0" shapeId="0">
+    <comment ref="T3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -895,7 +900,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y3" authorId="1" shapeId="0">
+    <comment ref="Y3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -921,7 +926,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z3" authorId="2" shapeId="0">
+    <comment ref="Z3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -994,7 +999,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA3" authorId="2" shapeId="0">
+    <comment ref="AA3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1047,7 +1052,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB3" authorId="2" shapeId="0">
+    <comment ref="AB3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1080,7 +1085,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z9" authorId="2" shapeId="0">
+    <comment ref="Z9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1173,7 +1178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA9" authorId="1" shapeId="0">
+    <comment ref="AA9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1198,7 +1203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB9" authorId="2" shapeId="0">
+    <comment ref="AB9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1261,7 +1266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T10" authorId="2" shapeId="0">
+    <comment ref="T10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
       <text>
         <r>
           <rPr>
@@ -2018,16 +2023,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="186" formatCode="0.000"/>
-    <numFmt numFmtId="187" formatCode="General_)"/>
-    <numFmt numFmtId="188" formatCode="0.0"/>
-    <numFmt numFmtId="190" formatCode="0.0000"/>
-    <numFmt numFmtId="195" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="General_)"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2057,32 +2062,6 @@
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -2243,7 +2222,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2338,6 +2317,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2578,37 +2563,37 @@
   </borders>
   <cellStyleXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2627,18 +2612,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2647,11 +2632,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9"/>
@@ -2665,69 +2650,69 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="29" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="25" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="29" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="22" fillId="9" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="22" fillId="9" borderId="5" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="187" fontId="20" fillId="7" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="18" fillId="9" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="18" fillId="9" borderId="5" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="16" fillId="7" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="7" borderId="17" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="7" borderId="17" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="7" borderId="18" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="7" borderId="18" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="7" borderId="19" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="7" borderId="19" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2736,23 +2721,23 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="188" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="4" fillId="16" borderId="0" xfId="16" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="14" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
@@ -2761,122 +2746,123 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="9" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="14" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="187" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="14" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="13" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="9" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="14" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="22" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="195" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="195" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="195" fontId="25" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="21" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="195" fontId="25" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="21" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="9" applyFill="1"/>
   </cellXfs>
   <cellStyles count="30">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
     <cellStyle name="40% - Accent3" xfId="2" builtinId="39"/>
     <cellStyle name="Accent2" xfId="3" builtinId="33"/>
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
-    <cellStyle name="Comma 2" xfId="5"/>
+    <cellStyle name="Comma 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Good" xfId="6" builtinId="26"/>
     <cellStyle name="Input" xfId="7" builtinId="20"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="9"/>
-    <cellStyle name="Normal 2" xfId="10"/>
-    <cellStyle name="Normal 4" xfId="11"/>
-    <cellStyle name="Normal 4 2" xfId="12"/>
-    <cellStyle name="Normal 8" xfId="13"/>
-    <cellStyle name="Normal 9 2" xfId="14"/>
-    <cellStyle name="Normale_B2020" xfId="15"/>
+    <cellStyle name="Normal 10" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal 4" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Normal 4 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 8" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal 9 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normale_B2020" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="Percent" xfId="16" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="17"/>
-    <cellStyle name="Percent 3" xfId="18"/>
-    <cellStyle name="Percent 3 2" xfId="19"/>
-    <cellStyle name="Percent 3 3" xfId="20"/>
-    <cellStyle name="Percent 3 4" xfId="21"/>
-    <cellStyle name="Percent 4" xfId="22"/>
-    <cellStyle name="Percent 4 2" xfId="23"/>
-    <cellStyle name="Percent 4 3" xfId="24"/>
-    <cellStyle name="Percent 4 4" xfId="25"/>
-    <cellStyle name="Percent 5" xfId="26"/>
-    <cellStyle name="Percent 6" xfId="27"/>
-    <cellStyle name="Percent 7" xfId="28"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="29"/>
+    <cellStyle name="Percent 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Percent 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Percent 3 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Percent 3 3" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Percent 3 4" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Percent 4" xfId="22" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Percent 4 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Percent 4 3" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Percent 4 4" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Percent 5" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Percent 6" xfId="27" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Percent 7" xfId="28" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Standard_Sce_D_Extraction" xfId="29" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3598,7 +3584,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="IEA Data"/>
@@ -3733,7 +3719,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="EnergyBalance"/>
@@ -4335,7 +4321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
@@ -5054,7 +5040,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:M5"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -5117,11 +5103,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:R33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6048,11 +6034,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:AB65536"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6549,9 +6535,8 @@
         <f t="shared" ref="D12:D19" si="1">$V$5</f>
         <v>ELC</v>
       </c>
-      <c r="G12" s="98">
-        <f>(-'EB1'!$D$6*$I$12)/($J$12*$O$12)</f>
-        <v>89.372771062763022</v>
+      <c r="G12" s="122">
+        <v>100</v>
       </c>
       <c r="H12" s="69"/>
       <c r="I12" s="76">
@@ -6578,7 +6563,7 @@
       </c>
       <c r="Q12" s="26"/>
       <c r="R12" s="34">
-        <f t="shared" ref="R12:R19" si="2">G12*$J12*$O12</f>
+        <f>G26*$J12*$O12</f>
         <v>2395.6907520000004</v>
       </c>
       <c r="S12" s="100"/>
@@ -6595,11 +6580,11 @@
         <v>Power Plants Existing00 - Solid Fuels</v>
       </c>
       <c r="X12" s="111" t="str">
-        <f t="shared" ref="X12:X19" si="3">$E$2</f>
+        <f t="shared" ref="X12:X19" si="2">$E$2</f>
         <v>PJ</v>
       </c>
       <c r="Y12" s="111" t="str">
-        <f t="shared" ref="Y12:Y19" si="4">$F$2</f>
+        <f t="shared" ref="Y12:Y19" si="3">$F$2</f>
         <v>GW</v>
       </c>
       <c r="Z12" s="115" t="s">
@@ -6650,7 +6635,7 @@
       </c>
       <c r="Q13" s="26"/>
       <c r="R13" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="R12:R19" si="4">G13*$J13*$O13</f>
         <v>1111.1038550399999</v>
       </c>
       <c r="S13" s="37"/>
@@ -6665,11 +6650,11 @@
         <v>Power Plants Existing00 - Natural Gas</v>
       </c>
       <c r="X13" s="111" t="str">
+        <f t="shared" si="2"/>
+        <v>PJ</v>
+      </c>
+      <c r="Y13" s="111" t="str">
         <f t="shared" si="3"/>
-        <v>PJ</v>
-      </c>
-      <c r="Y13" s="111" t="str">
-        <f t="shared" si="4"/>
         <v>GW</v>
       </c>
       <c r="Z13" s="111"/>
@@ -6718,7 +6703,7 @@
       </c>
       <c r="Q14" s="26"/>
       <c r="R14" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>153.07612499999996</v>
       </c>
       <c r="S14" s="37"/>
@@ -6733,11 +6718,11 @@
         <v>Power Plants Existing00 - Crude oil</v>
       </c>
       <c r="X14" s="111" t="str">
+        <f t="shared" si="2"/>
+        <v>PJ</v>
+      </c>
+      <c r="Y14" s="111" t="str">
         <f t="shared" si="3"/>
-        <v>PJ</v>
-      </c>
-      <c r="Y14" s="111" t="str">
-        <f t="shared" si="4"/>
         <v>GW</v>
       </c>
       <c r="Z14" s="111"/>
@@ -6789,7 +6774,7 @@
       </c>
       <c r="Q15" s="28"/>
       <c r="R15" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1470.1500000000003</v>
       </c>
       <c r="S15" s="37"/>
@@ -6804,11 +6789,11 @@
         <v>Power Plants Existing00 - Nuclear Energy</v>
       </c>
       <c r="X15" s="111" t="str">
+        <f t="shared" si="2"/>
+        <v>PJ</v>
+      </c>
+      <c r="Y15" s="111" t="str">
         <f t="shared" si="3"/>
-        <v>PJ</v>
-      </c>
-      <c r="Y15" s="111" t="str">
-        <f t="shared" si="4"/>
         <v>GW</v>
       </c>
       <c r="Z15" s="115" t="s">
@@ -6861,7 +6846,7 @@
       </c>
       <c r="Q16" s="28"/>
       <c r="R16" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>147.63257250000001</v>
       </c>
       <c r="S16" s="37"/>
@@ -6876,11 +6861,11 @@
         <v>Power Plants Existing00 - Biomass</v>
       </c>
       <c r="X16" s="111" t="str">
+        <f t="shared" si="2"/>
+        <v>PJ</v>
+      </c>
+      <c r="Y16" s="111" t="str">
         <f t="shared" si="3"/>
-        <v>PJ</v>
-      </c>
-      <c r="Y16" s="111" t="str">
-        <f t="shared" si="4"/>
         <v>GW</v>
       </c>
       <c r="Z16" s="115"/>
@@ -6947,11 +6932,11 @@
         <v>Power Plants Existing00 - Hydro power</v>
       </c>
       <c r="X17" s="111" t="str">
+        <f t="shared" si="2"/>
+        <v>PJ</v>
+      </c>
+      <c r="Y17" s="111" t="str">
         <f t="shared" si="3"/>
-        <v>PJ</v>
-      </c>
-      <c r="Y17" s="111" t="str">
-        <f t="shared" si="4"/>
         <v>GW</v>
       </c>
       <c r="Z17" s="111"/>
@@ -7002,7 +6987,7 @@
       </c>
       <c r="Q18" s="28"/>
       <c r="R18" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>263.8965</v>
       </c>
       <c r="S18" s="37"/>
@@ -7017,11 +7002,11 @@
         <v>Power Plants Existing00 - Wind energy</v>
       </c>
       <c r="X18" s="111" t="str">
+        <f t="shared" si="2"/>
+        <v>PJ</v>
+      </c>
+      <c r="Y18" s="111" t="str">
         <f t="shared" si="3"/>
-        <v>PJ</v>
-      </c>
-      <c r="Y18" s="111" t="str">
-        <f t="shared" si="4"/>
         <v>GW</v>
       </c>
       <c r="Z18" s="111"/>
@@ -7070,7 +7055,7 @@
       </c>
       <c r="Q19" s="28"/>
       <c r="R19" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="S19" s="37"/>
@@ -7085,11 +7070,11 @@
         <v>Power Plants Existing00 - Solar energy</v>
       </c>
       <c r="X19" s="111" t="str">
+        <f t="shared" si="2"/>
+        <v>PJ</v>
+      </c>
+      <c r="Y19" s="111" t="str">
         <f t="shared" si="3"/>
-        <v>PJ</v>
-      </c>
-      <c r="Y19" s="111" t="str">
-        <f t="shared" si="4"/>
         <v>GW</v>
       </c>
       <c r="Z19" s="111"/>
@@ -7118,6 +7103,12 @@
     </row>
     <row r="25" spans="2:28" x14ac:dyDescent="0.2">
       <c r="R25" s="97"/>
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="G26" s="98">
+        <f>(-'EB1'!$D$6*$I$12)/($J$12*$O$12)</f>
+        <v>89.372771062763022</v>
+      </c>
     </row>
     <row r="65536" spans="19:19" x14ac:dyDescent="0.2">
       <c r="S65536" s="37"/>
@@ -7131,7 +7122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B3:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/VT_REG1_ELC_V12.xlsx
+++ b/VT_REG1_ELC_V12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GAMS AND GIT\GitHub\Demo_S012_Vonline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0140D298-BD15-4BFE-98B8-22A43592DD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490862AB-B146-4BCE-A097-28FF23E527F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2821,6 +2821,7 @@
     <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="9" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2830,7 +2831,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="9" applyFill="1"/>
   </cellXfs>
   <cellStyles count="30">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
@@ -3730,6 +3730,11 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1">
+        <row r="5">
+          <cell r="D5">
+            <v>5263.9327000000003</v>
+          </cell>
+        </row>
         <row r="10">
           <cell r="D10">
             <v>-37.464700000000001</v>
@@ -3967,7 +3972,13 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2">
+        <row r="5">
+          <cell r="D5">
+            <v>2834.4252999999999</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
@@ -5067,17 +5078,17 @@
       <c r="F2" s="6"/>
     </row>
     <row r="4" spans="2:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="E4" s="119" t="s">
+      <c r="E4" s="120" t="s">
         <v>149</v>
       </c>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
-      <c r="L4" s="120"/>
-      <c r="M4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="121"/>
+      <c r="M4" s="122"/>
     </row>
     <row r="5" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E5" s="79" t="s">
@@ -5107,7 +5118,7 @@
   <dimension ref="B1:R33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6038,7 +6049,7 @@
   <dimension ref="B1:AB65536"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6535,8 +6546,8 @@
         <f t="shared" ref="D12:D19" si="1">$V$5</f>
         <v>ELC</v>
       </c>
-      <c r="G12" s="122">
-        <v>100</v>
+      <c r="G12" s="119">
+        <v>200</v>
       </c>
       <c r="H12" s="69"/>
       <c r="I12" s="76">
@@ -6635,7 +6646,7 @@
       </c>
       <c r="Q13" s="26"/>
       <c r="R13" s="34">
-        <f t="shared" ref="R12:R19" si="4">G13*$J13*$O13</f>
+        <f t="shared" ref="R13:R19" si="4">G13*$J13*$O13</f>
         <v>1111.1038550399999</v>
       </c>
       <c r="S13" s="37"/>
